--- a/Results/VICINITY Core Ontology/Validated CQs/Validated_P1_LLama_VICINITYCore.xlsx
+++ b/Results/VICINITY Core Ontology/Validated CQs/Validated_P1_LLama_VICINITYCore.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\psralha4\Desktop\F_Generative AI Results\Repository Files\Results\VICINITY Core Ontology\Validated CQs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\psralha4\Documents\RETROFIT-CQs\RETROFIT-CQs\Results\VICINITY Core Ontology\Validated CQs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1AD4C74-BA2B-446A-8961-F1F41306433D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A7D50A3-B51D-43B4-80FA-F2C5F9D08236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -427,7 +427,7 @@
     <t xml:space="preserve"> How is a time stamp used to track a phenomenon</t>
   </si>
   <si>
-    <t>Matched Candidate CQs</t>
+    <t>Validated  CQs</t>
   </si>
 </sst>
 </file>
@@ -793,9 +793,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="A129" sqref="A129"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
